--- a/Chat_App.xlsx
+++ b/Chat_App.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arrowelectronics-my.sharepoint.com/personal/anas_shaikh_einfochips_com/Documents/Desktop/Chat_Application/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arrowelectronics-my.sharepoint.com/personal/anas_shaikh_einfochips_com/Documents/Desktop/Chat_Application/chat_system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{A7E157B6-05DC-4EF4-BF38-89360457749B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48E3099E-0413-491E-895D-789AB99583A7}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{A7E157B6-05DC-4EF4-BF38-89360457749B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DE99E56-D7BA-4616-B1B9-50D105E533B8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1138529F-D18A-4584-BF23-4EA8D4FE4AA4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Milestone</t>
   </si>
@@ -113,12 +113,6 @@
     <t>Implement one-to-one private messaging between clients.</t>
   </si>
   <si>
-    <t>3.3 Group Chat</t>
-  </si>
-  <si>
-    <t>Implement group chat functionality where users can create and join chat groups.</t>
-  </si>
-  <si>
     <t>Milestone 4</t>
   </si>
   <si>
@@ -137,13 +131,43 @@
     <t>Use multi-threading to handle multiple client connections concurrently.</t>
   </si>
   <si>
-    <t>Person</t>
+    <t>Challenges Faced</t>
+  </si>
+  <si>
+    <t>Server-Client Connection issue</t>
+  </si>
+  <si>
+    <t>if Server exits first Port get lost</t>
+  </si>
+  <si>
+    <t>Username and Passwors not getting stored in file</t>
+  </si>
+  <si>
+    <t>thread sync issue</t>
+  </si>
+  <si>
+    <t>user authentiation was not properly working</t>
+  </si>
+  <si>
+    <t>Server-Client Chat not displayed properly</t>
+  </si>
+  <si>
+    <t>thread creation was little bit difficult</t>
+  </si>
+  <si>
+    <t>Multiple Clients not conneting to the server</t>
+  </si>
+  <si>
+    <t>Done By</t>
+  </si>
+  <si>
+    <t>Divyaraj</t>
   </si>
   <si>
     <t>Anas</t>
   </si>
   <si>
-    <t>Divyaraj</t>
+    <t>Both</t>
   </si>
 </sst>
 </file>
@@ -152,14 +176,6 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -175,7 +191,14 @@
     </font>
     <font>
       <b/>
-      <sz val="9.6"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -190,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -199,10 +222,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -211,24 +264,258 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -245,6 +532,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,229 +835,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DD1319-E75A-4F61-9DF5-41B54ADE2042}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
-    <col min="2" max="2" width="48.1796875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="D3" s="27"/>
+      <c r="E3" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="D6" s="27"/>
+      <c r="E6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="27"/>
+      <c r="E9" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+      <c r="D12" s="27"/>
+      <c r="E12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="25" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
-        <v>35</v>
+      <c r="D13" s="28"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="21" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Chat_App.xlsx
+++ b/Chat_App.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arrowelectronics-my.sharepoint.com/personal/anas_shaikh_einfochips_com/Documents/Desktop/Chat_Application/chat_system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{A7E157B6-05DC-4EF4-BF38-89360457749B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DE99E56-D7BA-4616-B1B9-50D105E533B8}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="8_{A7E157B6-05DC-4EF4-BF38-89360457749B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFAC86B7-A7A9-4CB5-BD99-58C22957D3BF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1138529F-D18A-4584-BF23-4EA8D4FE4AA4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>Milestone</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Duration</t>
-  </si>
-  <si>
     <t>Milestone 1</t>
   </si>
   <si>
@@ -168,6 +165,30 @@
   </si>
   <si>
     <t>Both</t>
+  </si>
+  <si>
+    <t>Expexted Duration</t>
+  </si>
+  <si>
+    <t>Actual Duration</t>
+  </si>
+  <si>
+    <t>Extra 2 Days</t>
+  </si>
+  <si>
+    <t>Extra 3 Days</t>
+  </si>
+  <si>
+    <t>Start Date :</t>
+  </si>
+  <si>
+    <t>Expected End Date :</t>
+  </si>
+  <si>
+    <t>18/09/2023</t>
+  </si>
+  <si>
+    <t>Actual End Date :</t>
   </si>
 </sst>
 </file>
@@ -190,15 +211,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -213,7 +234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -442,11 +463,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -455,67 +500,100 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,223 +913,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DD1319-E75A-4F61-9DF5-41B54ADE2042}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="4" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" ht="26" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="23" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G6" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="19" t="s">
+    <row r="13" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" ht="26" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" ht="26" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:6" ht="26" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="21" t="s">
-        <v>39</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="39">
+        <v>45087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="40">
+        <v>45179</v>
       </c>
     </row>
   </sheetData>
